--- a/src/main/resources/resource/PlayerLevelResource.xlsx
+++ b/src/main/resources/resource/PlayerLevelResource.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D19808-6AAD-44C7-B485-A64BEC4D45AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E822F2-0948-44E0-869A-0B2E3CB25355}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="405" windowWidth="14220" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="1335" windowWidth="14220" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,6 +558,9 @@
       <c r="A12">
         <v>9</v>
       </c>
+      <c r="B12">
+        <v>4200</v>
+      </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>

--- a/src/main/resources/resource/PlayerLevelResource.xlsx
+++ b/src/main/resources/resource/PlayerLevelResource.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E822F2-0948-44E0-869A-0B2E3CB25355}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341FCAF5-121D-45F2-A285-258BA86CD050}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1335" windowWidth="14220" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>升级所需经验</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,22 @@
   </si>
   <si>
     <t>PHYSICAL_ATTACK,30;MAGIC_ATTACK,30;PHYSICAL_DEFENSE,30;MAGIC_DEFENSE,30;MAX_HP,1400;MAX_MP,1400;ATTACK_SPEED,3;POWER,3;INTELLIGENCE,3;PHYSICAL,3;AGILE,3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,100;MAGIC_ATTACK,100;PHYSICAL_DEFENSE,100;MAGIC_DEFENSE,100;MAX_HP,2800;MAX_MP,2400;ATTACK_SPEED,10;POWER,10;INTELLIGENCE,10;PHYSICAL,10;AGILE,10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,110;MAGIC_ATTACK,110;PHYSICAL_DEFENSE,110;MAGIC_DEFENSE,110;MAX_HP,3000;MAX_MP,3000;ATTACK_SPEED,11;POWER,11;INTELLIGENCE,11;PHYSICAL,11;AGILE,11;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,120;MAGIC_ATTACK,120;PHYSICAL_DEFENSE,120;MAGIC_DEFENSE,120;MAX_HP,3200;MAX_MP,3200;ATTACK_SPEED,12;POWER,12;INTELLIGENCE,12;PHYSICAL,12;AGILE,12;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,130;MAGIC_ATTACK,130;PHYSICAL_DEFENSE,130;MAGIC_DEFENSE,130;MAX_HP,3400;MAX_MP,3400;ATTACK_SPEED,13;POWER,13;INTELLIGENCE,13;PHYSICAL,13;AGILE,13;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -565,6 +581,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>4600</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>5000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>5400</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>5800</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/resource/PlayerLevelResource.xlsx
+++ b/src/main/resources/resource/PlayerLevelResource.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341FCAF5-121D-45F2-A285-258BA86CD050}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BA6047-CA08-4FC4-A7F3-43B060B85C05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>升级所需经验</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,71 @@
   </si>
   <si>
     <t>PHYSICAL_ATTACK,130;MAGIC_ATTACK,130;PHYSICAL_DEFENSE,130;MAGIC_DEFENSE,130;MAX_HP,3400;MAX_MP,3400;ATTACK_SPEED,13;POWER,13;INTELLIGENCE,13;PHYSICAL,13;AGILE,13;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,140;MAGIC_ATTACK,140;PHYSICAL_DEFENSE,140;MAGIC_DEFENSE,140;MAX_HP,3400;MAX_MP,3400;ATTACK_SPEED,14;POWER,14;INTELLIGENCE,14;PHYSICAL,14;AGILE,14;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,150;MAGIC_ATTACK,150;PHYSICAL_DEFENSE,150;MAGIC_DEFENSE,150;MAX_HP,3500;MAX_MP,3500;ATTACK_SPEED,15;POWER,15;INTELLIGENCE,15;PHYSICAL,15;AGILE,15;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,180;MAGIC_ATTACK,180;PHYSICAL_DEFENSE,180;MAGIC_DEFENSE,180;MAX_HP,3800;MAX_MP,3800;ATTACK_SPEED,18;POWER,18;INTELLIGENCE,18;PHYSICAL,18;AGILE,18;</t>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,190;MAGIC_ATTACK,190;PHYSICAL_DEFENSE,190;MAGIC_DEFENSE,190;MAX_HP,3900;MAX_MP,3900;ATTACK_SPEED,19;POWER,19;INTELLIGENCE,19;PHYSICAL,19;AGILE,19;</t>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,160;MAGIC_ATTACK,160;PHYSICAL_DEFENSE,160;MAGIC_DEFENSE,160;MAX_HP,3600;MAX_MP,3600;ATTACK_SPEED,16;POWER,16;INTELLIGENCE,16;PHYSICAL,16;AGILE,16;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,170;MAGIC_ATTACK,170;PHYSICAL_DEFENSE,170;MAGIC_DEFENSE,170;MAX_HP,3700;MAX_MP,3700;ATTACK_SPEED,17;POWER,17;INTELLIGENCE,17;PHYSICAL,17;AGILE,17;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,200;MAGIC_ATTACK,200;PHYSICAL_DEFENSE,200;MAGIC_DEFENSE,200;MAX_HP,4000;MAX_MP,4000;ATTACK_SPEED,20;POWER,20;INTELLIGENCE,20;PHYSICAL,20;AGILE,20;</t>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,210;MAGIC_ATTACK,210;PHYSICAL_DEFENSE,210;MAGIC_DEFENSE,210;MAX_HP,4100;MAX_MP,4100;ATTACK_SPEED,21;POWER,21;INTELLIGENCE,21;PHYSICAL,21;AGILE,21;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,220;MAGIC_ATTACK,220;PHYSICAL_DEFENSE,220;MAGIC_DEFENSE,220;MAX_HP,4200;MAX_MP,4200;ATTACK_SPEED,22;POWER,22;INTELLIGENCE,22;PHYSICAL,22;AGILE,22;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,230;MAGIC_ATTACK,230;PHYSICAL_DEFENSE,230;MAGIC_DEFENSE,230;MAX_HP,4300;MAX_MP,4300;ATTACK_SPEED,23;POWER,23;INTELLIGENCE,23;PHYSICAL,23;AGILE,23;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,240;MAGIC_ATTACK,240;PHYSICAL_DEFENSE,240;MAGIC_DEFENSE,240;MAX_HP,4400;MAX_MP,4400;ATTACK_SPEED,24;POWER,24;INTELLIGENCE,24;PHYSICAL,24;AGILE,24;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,250;MAGIC_ATTACK,250;PHYSICAL_DEFENSE,250;MAGIC_DEFENSE,250;MAX_HP,4500;MAX_MP,4500;ATTACK_SPEED,25;POWER,25;INTELLIGENCE,25;PHYSICAL,25;AGILE,25;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,260;MAGIC_ATTACK,260;PHYSICAL_DEFENSE,260;MAGIC_DEFENSE,260;MAX_HP,4600;MAX_MP,4600;ATTACK_SPEED,26;POWER,26;INTELLIGENCE,26;PHYSICAL,26;AGILE,26;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,270;MAGIC_ATTACK,270;PHYSICAL_DEFENSE,270;MAGIC_DEFENSE,270;MAX_HP,4700;MAX_MP,4700;ATTACK_SPEED,27;POWER,27;INTELLIGENCE,27;PHYSICAL,27;AGILE,27;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,280;MAGIC_ATTACK,280;PHYSICAL_DEFENSE,280;MAGIC_DEFENSE,280;MAX_HP,4800;MAX_MP,4800;ATTACK_SPEED,28;POWER,28;INTELLIGENCE,28;PHYSICAL,28;AGILE,28;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,290;MAGIC_ATTACK,290;PHYSICAL_DEFENSE,290;MAGIC_DEFENSE,290;MAX_HP,4900;MAX_MP,4900;ATTACK_SPEED,29;POWER,29;INTELLIGENCE,29;PHYSICAL,29;AGILE,29;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,300;MAGIC_ATTACK,300;PHYSICAL_DEFENSE,300;MAGIC_DEFENSE,300;MAX_HP,5000;MAX_MP,5000;ATTACK_SPEED,30;POWER,30;INTELLIGENCE,30;PHYSICAL,30;AGILE,30;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -625,6 +690,193 @@
         <v>21</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>6200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>6600</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>7000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>7400</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>7800</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>8200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>8600</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>9000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>9400</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>9800</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>10200</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>10600</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>11000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>11400</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>11800</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>12200</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>12600</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
